--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3113045.779344982</v>
+        <v>3111158.197828581</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800618</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>346.6999128968763</v>
+        <v>9.283029612712731</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -823,22 +823,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>18.37682225755673</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>168.7756050755994</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,10 +902,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>337.4550179536792</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>52.33159926298225</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>74.09260911231073</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,16 +1105,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>139.6528551206849</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1148,10 +1148,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>6.283679164003906</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>35.67764259955304</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>90.04875807993774</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,16 +1576,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>159.8265587000963</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>93.87916681139883</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>286.2373523985774</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>139.1537278750036</v>
+        <v>5.562624396424298</v>
       </c>
     </row>
     <row r="17">
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,10 +2002,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>106.2835578420346</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>2.496989041814572</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2096,7 +2096,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
         <v>81.77913505274077</v>
@@ -2239,16 +2239,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>29.18937547121067</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2293,10 +2293,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>218.4268918292803</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,22 +2521,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>58.84841879028961</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>62.35304823392138</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505273946</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2767,19 +2767,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>101.3888385539017</v>
+        <v>113.9765264254023</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>91.0714665391052</v>
+        <v>124.6287235533801</v>
       </c>
       <c r="C31" t="n">
         <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965526</v>
+        <v>93.41221638965519</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801207</v>
+        <v>91.230706018012</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437415</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>42.20569823125696</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897903</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2159888357149</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.7610957752357</v>
+        <v>54.76109577523563</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.9343866952708</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.3197417080338</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235376</v>
       </c>
     </row>
     <row r="32">
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
         <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692855</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>959.5129866402885</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="C2" t="n">
-        <v>959.5129866402885</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="D2" t="n">
-        <v>959.5129866402885</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4370,10 +4370,10 @@
         <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>959.5129866402885</v>
+        <v>1300.338121270757</v>
       </c>
       <c r="Y2" t="n">
-        <v>959.5129866402885</v>
+        <v>1300.338121270757</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417901</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1546.944160717209</v>
+        <v>854.9003034538789</v>
       </c>
       <c r="C5" t="n">
-        <v>1177.981643776797</v>
+        <v>485.9377865134672</v>
       </c>
       <c r="D5" t="n">
-        <v>819.715945170047</v>
+        <v>127.6720879067167</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>127.6720879067167</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>120.7265871575132</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>106.8031830961041</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>106.8031830961041</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="X5" t="n">
-        <v>2323.683332757143</v>
+        <v>1245.039635429691</v>
       </c>
       <c r="Y5" t="n">
-        <v>1933.544000781331</v>
+        <v>854.9003034538789</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4644,43 +4644,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T7" t="n">
-        <v>286.5323736931987</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="U7" t="n">
-        <v>286.5323736931987</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="V7" t="n">
-        <v>286.5323736931987</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>286.5323736931987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>286.5323736931987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>286.5323736931987</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1187.828354776384</v>
+        <v>1668.489050745291</v>
       </c>
       <c r="C8" t="n">
-        <v>818.8658378359718</v>
+        <v>1299.526533804879</v>
       </c>
       <c r="D8" t="n">
-        <v>460.6001392292213</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2690.801940347511</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2690.801940347511</v>
+        <v>2606.082378720884</v>
       </c>
       <c r="T8" t="n">
-        <v>2690.801940347511</v>
+        <v>2606.082378720884</v>
       </c>
       <c r="U8" t="n">
-        <v>2690.801940347511</v>
+        <v>2352.320593358976</v>
       </c>
       <c r="V8" t="n">
-        <v>2690.801940347511</v>
+        <v>2021.257706015405</v>
       </c>
       <c r="W8" t="n">
-        <v>2338.033285077397</v>
+        <v>1668.489050745291</v>
       </c>
       <c r="X8" t="n">
-        <v>1964.567526816317</v>
+        <v>1668.489050745291</v>
       </c>
       <c r="Y8" t="n">
-        <v>1574.428194840505</v>
+        <v>1668.489050745291</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4881,43 +4881,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5018,55 +5018,55 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>563.7235867775516</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170013</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,7 +5203,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
         <v>779.0639759471192</v>
@@ -5224,25 +5224,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1226.400198735792</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1226.400198735792</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1226.400198735792</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V13" t="n">
-        <v>1226.400198735792</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W13" t="n">
-        <v>936.9830286988315</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>708.9934778008142</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>708.9934778008142</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.995055864554</v>
+        <v>1427.741252113633</v>
       </c>
       <c r="N15" t="n">
-        <v>1538.857683528586</v>
+        <v>1757.603879777666</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1164.055751909233</v>
       </c>
       <c r="U16" t="n">
-        <v>1009.867621687013</v>
+        <v>874.9271131227915</v>
       </c>
       <c r="V16" t="n">
-        <v>755.1831334811261</v>
+        <v>620.2426249169046</v>
       </c>
       <c r="W16" t="n">
-        <v>465.7659634441654</v>
+        <v>330.8254548799439</v>
       </c>
       <c r="X16" t="n">
-        <v>237.7764125461481</v>
+        <v>102.8359039819265</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5537,28 +5537,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,10 +5589,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
         <v>287.7778528277033</v>
@@ -5601,19 +5601,19 @@
         <v>901.674922584592</v>
       </c>
       <c r="M18" t="n">
-        <v>1208.995055864554</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N18" t="n">
-        <v>1538.857683528586</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>266.1532743881928</v>
+        <v>354.6908600059899</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>354.6908600059899</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>204.5742205936542</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>204.5742205936542</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>204.5742205936542</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>204.5742205936542</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5680,7 +5680,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035279</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.921157035279</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765189</v>
+        <v>898.7925182488374</v>
       </c>
       <c r="V19" t="n">
-        <v>783.5599953231708</v>
+        <v>644.1080300429505</v>
       </c>
       <c r="W19" t="n">
-        <v>494.1428252862102</v>
+        <v>354.6908600059899</v>
       </c>
       <c r="X19" t="n">
-        <v>266.1532743881928</v>
+        <v>354.6908600059899</v>
       </c>
       <c r="Y19" t="n">
-        <v>266.1532743881928</v>
+        <v>354.6908600059899</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5732,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5771,7 +5771,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5829,28 +5829,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>412.6079778147081</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>1026.505047571597</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M21" t="n">
-        <v>1333.825180851558</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N21" t="n">
-        <v>1663.687808515591</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O21" t="n">
-        <v>1943.227873734288</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>560.9563154684962</v>
+        <v>126.7013091079733</v>
       </c>
       <c r="C22" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028584</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U22" t="n">
-        <v>1078.363036403474</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V22" t="n">
-        <v>1078.363036403474</v>
+        <v>644.1080300429513</v>
       </c>
       <c r="W22" t="n">
-        <v>788.9458663665135</v>
+        <v>354.6908600059907</v>
       </c>
       <c r="X22" t="n">
-        <v>560.9563154684962</v>
+        <v>126.7013091079733</v>
       </c>
       <c r="Y22" t="n">
-        <v>560.9563154684962</v>
+        <v>126.7013091079733</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5978,40 +5978,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6020,19 +6020,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,10 +6063,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
         <v>287.7778528277033</v>
@@ -6084,10 +6084,10 @@
         <v>2208.321444831246</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2413.343925613455</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>247.3337308726216</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="C25" t="n">
-        <v>247.3337308726216</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
         <v>779.0639759471192</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473454</v>
+        <v>1328.398319856809</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1104.612904646315</v>
       </c>
       <c r="U25" t="n">
-        <v>1012.227968258999</v>
+        <v>815.4842658598729</v>
       </c>
       <c r="V25" t="n">
-        <v>757.5434800531123</v>
+        <v>815.4842658598729</v>
       </c>
       <c r="W25" t="n">
-        <v>468.1263100161517</v>
+        <v>815.4842658598729</v>
       </c>
       <c r="X25" t="n">
-        <v>468.1263100161517</v>
+        <v>815.4842658598729</v>
       </c>
       <c r="Y25" t="n">
-        <v>247.3337308726216</v>
+        <v>594.6916867163428</v>
       </c>
     </row>
     <row r="26">
@@ -6212,28 +6212,28 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805455</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822449</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
         <v>3183.709822619127</v>
@@ -6248,13 +6248,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
         <v>4262.3578574653</v>
@@ -6291,19 +6291,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
         <v>287.7778528277033</v>
@@ -6312,19 +6312,19 @@
         <v>901.674922584592</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.043068977053</v>
+        <v>1321.461721072713</v>
       </c>
       <c r="N27" t="n">
-        <v>1999.905696641086</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>563.159861298439</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C28" t="n">
-        <v>394.2236783705321</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D28" t="n">
-        <v>244.1070389581963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581963</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
         <v>779.0639759471192</v>
@@ -6415,19 +6415,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1075.21084526296</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>1075.21084526296</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
-        <v>1075.21084526296</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X28" t="n">
-        <v>847.221294364943</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="Y28" t="n">
-        <v>744.8083261286786</v>
+        <v>416.2699138005285</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
         <v>1701.09316900344</v>
@@ -6449,19 +6449,19 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514083</v>
@@ -6476,16 +6476,16 @@
         <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M30" t="n">
-        <v>1208.995055864553</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N30" t="n">
-        <v>1538.857683528586</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O30" t="n">
-        <v>2208.321444831246</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,52 +6595,52 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>638.4603630227163</v>
+        <v>439.5324299542203</v>
       </c>
       <c r="C31" t="n">
-        <v>525.2850453761802</v>
+        <v>326.3571123076842</v>
       </c>
       <c r="D31" t="n">
-        <v>430.9292712452152</v>
+        <v>232.0013381767194</v>
       </c>
       <c r="E31" t="n">
-        <v>338.7770429441929</v>
+        <v>139.8491098756969</v>
       </c>
       <c r="F31" t="n">
-        <v>247.6479607276535</v>
+        <v>139.8491098756969</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276535</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864671</v>
+        <v>164.2510079864674</v>
       </c>
       <c r="K31" t="n">
-        <v>369.08763629335</v>
+        <v>369.0876362933504</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667508</v>
+        <v>671.4509053667512</v>
       </c>
       <c r="M31" t="n">
-        <v>997.668872196205</v>
+        <v>997.6688721962055</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
         <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
         <v>1880.811824899271</v>
@@ -6649,22 +6649,22 @@
         <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.62813016707</v>
+        <v>1568.628130167071</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661999</v>
+        <v>1335.260356662001</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737483</v>
+        <v>1136.336733737485</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818933</v>
+        <v>902.6804289818948</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652468</v>
+        <v>730.4517433652484</v>
       </c>
       <c r="Y31" t="n">
-        <v>730.4517433652468</v>
+        <v>565.4200295030892</v>
       </c>
     </row>
     <row r="32">
@@ -6689,7 +6689,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822463</v>
@@ -6780,16 +6780,16 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>709.4934589365143</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M33" t="n">
-        <v>1016.813592216476</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N33" t="n">
-        <v>1346.676219880509</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O33" t="n">
         <v>2016.139981183168</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C34" t="n">
         <v>559.3441472229667</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E34" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504507</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103122</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982966</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028587</v>
@@ -6859,7 +6859,7 @@
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649691</v>
@@ -6880,7 +6880,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6895,13 +6895,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045202</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010312</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
@@ -6923,10 +6923,10 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822463</v>
@@ -6935,28 +6935,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014293</v>
@@ -6968,19 +6968,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7017,25 +7017,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229675</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649691</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7175,25 +7175,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014293</v>
@@ -7257,16 +7257,16 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>563.7235867775518</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M39" t="n">
-        <v>1332.091733170013</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N39" t="n">
-        <v>1661.954360834046</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P39" t="n">
         <v>2536.440602918915</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506716</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103131</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7330,13 +7330,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7366,16 +7366,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045201</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="41">
@@ -7388,52 +7388,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>563.7235867775518</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M42" t="n">
-        <v>1332.091733170013</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N42" t="n">
-        <v>1661.954360834046</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L45" t="n">
-        <v>1206.718781115524</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M45" t="n">
-        <v>1514.038914395485</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N45" t="n">
-        <v>1843.901542059518</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,52 +7780,52 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525402</v>
+        <v>177.0503551525397</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649688</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
   </sheetData>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>422.286579409329</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8547,10 +8547,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,7 +8772,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>29.47535963978208</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8784,13 +8784,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>18.73797368291389</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8945,10 +8945,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599059</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>199.7396287231153</v>
+        <v>76.43196988338565</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9249,22 +9249,22 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>41.75994765618401</v>
       </c>
       <c r="O18" t="n">
-        <v>199.7396287231153</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,16 +9477,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>96.03744927814711</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>171.2966883299262</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>124.3400780863232</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>113.6026921294541</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9960,13 +9960,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>113.6026921294541</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>52.49733361305277</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627466</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10194,25 +10194,25 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>349.7653003338569</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>124.3400780863232</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10428,19 +10428,19 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>176.7176547498455</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>306.1147370139962</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,13 +10665,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>392.1113620226436</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,10 +10905,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>29.47535963978225</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10917,7 +10917,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,28 +11139,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>29.47535963978225</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>32.92248665775651</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,13 +11373,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11388,16 +11388,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>85.30006332127823</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,16 +23464,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09425128350694</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>192.3581855871785</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>79.43092547709119</v>
+        <v>213.0220289556705</v>
       </c>
     </row>
     <row r="17">
@@ -23890,10 +23890,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23905,7 +23905,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>42.63027052550154</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,25 +23935,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>249.6406542820134</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24127,16 +24127,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>138.0574456274172</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,10 +24181,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>67.81046056929704</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,19 +24361,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24409,22 +24409,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.0723911933136</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>223.884304164656</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24610,7 +24610,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24655,19 +24655,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>117.1958147981931</v>
+        <v>104.6081269266925</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>33.55725701427499</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437407</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>69.08461360356345</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897896</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571482</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>744790.5744110564</v>
+        <v>744790.5744110565</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>744790.5744110564</v>
+        <v>744790.5744110562</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>744790.5744110562</v>
+        <v>744790.5744110564</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>774007.7679850446</v>
+        <v>774007.7679850447</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="C2" t="n">
         <v>677359.4601380333</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380338</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="E2" t="n">
-        <v>645197.9485672195</v>
+        <v>645197.9485672194</v>
       </c>
       <c r="F2" t="n">
-        <v>645197.9485672191</v>
+        <v>645197.9485672193</v>
       </c>
       <c r="G2" t="n">
+        <v>645197.9485672194</v>
+      </c>
+      <c r="H2" t="n">
         <v>645197.9485672193</v>
       </c>
-      <c r="H2" t="n">
-        <v>645197.9485672192</v>
-      </c>
       <c r="I2" t="n">
-        <v>645197.9485672192</v>
+        <v>645197.9485672193</v>
       </c>
       <c r="J2" t="n">
-        <v>645197.9485672194</v>
+        <v>645197.9485672197</v>
       </c>
       <c r="K2" t="n">
         <v>671256.5266196957</v>
       </c>
       <c r="L2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="M2" t="n">
+        <v>677359.460138034</v>
+      </c>
+      <c r="N2" t="n">
         <v>677359.4601380337</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>677359.4601380334</v>
+      </c>
+      <c r="P2" t="n">
         <v>677359.4601380336</v>
-      </c>
-      <c r="O2" t="n">
-        <v>677359.4601380336</v>
-      </c>
-      <c r="P2" t="n">
-        <v>677359.4601380335</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,19 +26381,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284568</v>
+        <v>44162.60530284586</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086684</v>
+        <v>10342.9068008668</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284574</v>
+        <v>44162.60530284576</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26424,40 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
+        <v>22174.60758687067</v>
+      </c>
+      <c r="F4" t="n">
+        <v>22174.60758687073</v>
+      </c>
+      <c r="G4" t="n">
+        <v>22174.60758687073</v>
+      </c>
+      <c r="H4" t="n">
         <v>22174.60758687071</v>
       </c>
-      <c r="F4" t="n">
-        <v>22174.60758687069</v>
-      </c>
-      <c r="G4" t="n">
-        <v>22174.60758687068</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>22174.60758687072</v>
       </c>
-      <c r="I4" t="n">
-        <v>22174.60758687071</v>
-      </c>
       <c r="J4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687077</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106727</v>
+        <v>40339.23010106729</v>
       </c>
       <c r="L4" t="n">
         <v>44593.3948281912</v>
       </c>
       <c r="M4" t="n">
+        <v>44593.39482819116</v>
+      </c>
+      <c r="N4" t="n">
+        <v>44593.39482819119</v>
+      </c>
+      <c r="O4" t="n">
         <v>44593.3948281912</v>
       </c>
-      <c r="N4" t="n">
-        <v>44593.39482819121</v>
-      </c>
-      <c r="O4" t="n">
-        <v>44593.39482819119</v>
-      </c>
       <c r="P4" t="n">
-        <v>44593.39482819122</v>
+        <v>44593.3948281912</v>
       </c>
     </row>
     <row r="5">
@@ -26476,25 +26476,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022281</v>
       </c>
       <c r="L5" t="n">
         <v>97715.1058200254</v>
@@ -26506,10 +26506,10 @@
         <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-161100.364926445</v>
+        <v>-161100.3649264448</v>
       </c>
       <c r="C6" t="n">
-        <v>428867.5142880995</v>
+        <v>428867.5142880994</v>
       </c>
       <c r="D6" t="n">
-        <v>428867.5142880999</v>
+        <v>428867.5142880997</v>
       </c>
       <c r="E6" t="n">
-        <v>5875.978554735935</v>
+        <v>5778.519428763946</v>
       </c>
       <c r="F6" t="n">
-        <v>531036.0150316318</v>
+        <v>530938.5559056598</v>
       </c>
       <c r="G6" t="n">
-        <v>531036.015031632</v>
+        <v>530938.5559056599</v>
       </c>
       <c r="H6" t="n">
-        <v>531036.0150316319</v>
+        <v>530938.5559056599</v>
       </c>
       <c r="I6" t="n">
-        <v>531036.0150316319</v>
+        <v>530938.5559056599</v>
       </c>
       <c r="J6" t="n">
-        <v>354612.795839039</v>
+        <v>354515.3367130673</v>
       </c>
       <c r="K6" t="n">
-        <v>490126.48268556</v>
+        <v>490107.9889476254</v>
       </c>
       <c r="L6" t="n">
         <v>524708.0526889501</v>
       </c>
       <c r="M6" t="n">
-        <v>400249.94425598</v>
+        <v>400249.9442559802</v>
       </c>
       <c r="N6" t="n">
-        <v>535050.9594898169</v>
+        <v>535050.9594898171</v>
       </c>
       <c r="O6" t="n">
-        <v>535050.959489817</v>
+        <v>535050.9594898167</v>
       </c>
       <c r="P6" t="n">
-        <v>490888.3541869711</v>
+        <v>490888.3541869714</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="M2" t="n">
         <v>68.13189012964065</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964067</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964068</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964062</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964069</v>
@@ -26741,16 +26741,16 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
@@ -26923,7 +26923,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108355</v>
+        <v>12.9286335010835</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855717</v>
+        <v>55.2032566285572</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,7 +27160,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855717</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,7 +27391,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>23.03118778159273</v>
+        <v>360.4480710657563</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>128.0571403890124</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,19 +27585,19 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>117.5062691663784</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,10 +27622,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>44.47535211858258</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>99.599716981879</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>105.7393710696266</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27789,7 +27789,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27825,16 +27825,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>112.4847882031431</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>48.1947234108078</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>138.7380702094185</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>196.23311616204</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28345,7 +28345,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29293,7 +29293,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1.30232927890104e-12</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="C31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="D31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="E31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="F31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="G31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="H31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="J31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="K31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="L31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="M31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="N31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="O31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="P31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="R31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="S31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="T31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="U31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="V31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="W31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="X31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855717</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34775,16 +34775,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0228424856228</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338903</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,7 +35021,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>278.7330645958064</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>225.8313886144385</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35665,10 +35665,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>482.1033309642235</v>
+        <v>358.7956721244938</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35814,16 +35814,16 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
@@ -35969,22 +35969,22 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>374.9545210541968</v>
       </c>
       <c r="O18" t="n">
-        <v>482.1033309642235</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>406.4618263286133</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980128</v>
@@ -36215,13 +36215,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>378.3901032614508</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K23" t="n">
         <v>528.689756130333</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36452,13 +36452,13 @@
         <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>331.4334930178478</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>201.6157249145282</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,13 +36680,13 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>424.0270691799203</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>334.8610358541609</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
         <v>207.0934149315246</v>
@@ -36695,7 +36695,7 @@
         <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36844,7 +36844,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P29" t="n">
         <v>570.6060255109123</v>
@@ -36914,25 +36914,25 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>660.1896773843231</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>331.4334930178478</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412262</v>
+        <v>67.71102679412269</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
         <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
         <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043185</v>
+        <v>94.42895660043192</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37148,19 +37148,19 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>425.9753597058697</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>639.309310412009</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
         <v>525.5561835714618</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K35" t="n">
         <v>528.689756130333</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,13 +37385,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>702.5357390731098</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980128</v>
@@ -37400,13 +37400,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37543,7 +37543,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,10 +37625,10 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>278.7330645958065</v>
+        <v>425.9753597058697</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980128</v>
@@ -37637,7 +37637,7 @@
         <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
         <v>88.0130327850741</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>278.7330645958065</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>343.3468637082227</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
@@ -38108,16 +38108,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>367.6637655623863</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
